--- a/autotest1st/jgg/order/page/HomePage.xlsx
+++ b/autotest1st/jgg/order/page/HomePage.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C17B9A-3C34-4886-8828-6982B8DF9F43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA3EF04-474C-46EF-AA38-13C88FEB1873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="1095" windowWidth="18525" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -224,6 +232,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -559,7 +635,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
